--- a/Outputs/23.10.25ToBatr/BSP_HallMeter_BOM.v1.xlsx
+++ b/Outputs/23.10.25ToBatr/BSP_HallMeter_BOM.v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Proj\DistrHall\SRSR.BPC\HallFieldMeter\Project Outputs for HallFieldMeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Proj\DistrHall\SRSR.BPC\HallFieldMeter\Outputs\23.10.25ToBatr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -905,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -965,6 +965,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1248,9 +1251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1261,7 @@
     <col min="1" max="1" width="29.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="5" customWidth="1"/>
     <col min="5" max="6" width="13.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18039,7 +18042,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>124</v>
       </c>
@@ -18049,7 +18052,7 @@
       <c r="C23" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="49" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="28">

--- a/Outputs/23.10.25ToBatr/BSP_HallMeter_BOM.v1.xlsx
+++ b/Outputs/23.10.25ToBatr/BSP_HallMeter_BOM.v1.xlsx
@@ -104,9 +104,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>LT5400-6</t>
-  </si>
-  <si>
     <t>Analog Devices</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>Резистор SMD 0.125Вт 0805 1 кОм, 1%</t>
   </si>
   <si>
-    <t>LT5400-7</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
@@ -625,6 +619,12 @@
   </si>
   <si>
     <t>Резисторная сборка SMD, 4х33 Ом 5%</t>
+  </si>
+  <si>
+    <t>LT5400BCMS8E-6#PBF</t>
+  </si>
+  <si>
+    <t>LT5400BCMS8E-7#PBF</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1252,8 @@
   <dimension ref="A1:XFB70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,10 +1267,10 @@
   <sheetData>
     <row r="1" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>0</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="2" spans="1:16382" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1297,116 +1297,116 @@
     </row>
     <row r="3" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9">
         <v>3</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16382" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -17787,186 +17787,186 @@
     </row>
     <row r="9" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17">
         <v>1</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>112</v>
-      </c>
       <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:16382" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>115</v>
-      </c>
       <c r="C17" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="24">
         <v>1</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -17976,13 +17976,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>25</v>
@@ -17991,7 +17991,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -17999,10 +17999,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
@@ -18020,7 +18020,7 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>13</v>
@@ -18034,7 +18034,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -18044,33 +18044,33 @@
     </row>
     <row r="23" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="C23" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="D23" s="49" t="s">
         <v>126</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>127</v>
       </c>
       <c r="E23" s="28">
         <v>18</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
@@ -18079,58 +18079,58 @@
         <v>3</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>130</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="9">
         <v>64</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="17">
         <v>8</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>5</v>
@@ -18139,84 +18139,84 @@
         <v>2</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="D30" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>146</v>
-      </c>
       <c r="D31" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -18226,16 +18226,16 @@
     </row>
     <row r="33" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>29</v>
       </c>
       <c r="E33" s="28">
         <v>1</v>
@@ -18246,248 +18246,248 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E34" s="9">
         <v>4</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" s="9">
         <v>4</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="9">
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="9">
         <v>1</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="17">
         <v>6</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E42" s="17">
         <v>5</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43" s="17">
         <v>5</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" s="17">
         <v>20</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E45" s="24">
         <v>8</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -18515,11 +18515,11 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -18527,11 +18527,11 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="17">
@@ -18543,11 +18543,11 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>18</v>
@@ -18561,11 +18561,11 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="17">
@@ -18577,11 +18577,11 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>17</v>
@@ -18599,7 +18599,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>17</v>
@@ -18613,11 +18613,11 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="32">
@@ -18629,7 +18629,7 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -18639,47 +18639,47 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D56" s="36"/>
       <c r="E56" s="36">
         <v>1</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B57" s="46"/>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>24</v>
@@ -18688,25 +18688,25 @@
         <v>1</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="E59" s="24">
         <v>1</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">

--- a/Outputs/23.10.25ToBatr/BSP_HallMeter_BOM.v1.xlsx
+++ b/Outputs/23.10.25ToBatr/BSP_HallMeter_BOM.v1.xlsx
@@ -1253,7 +1253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
